--- a/public/images/verified_pois_2025-05-31.xlsx
+++ b/public/images/verified_pois_2025-05-31.xlsx
@@ -448,34 +448,34 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>Confi Dental Smile Care, House  13/A/A, Majar Road, 2nd Colony, Mirpur, Dhaka</v>
+        <v>শহর - Rafi Thai Aluminum, Islambagh, Khalifapara, Rangpur</v>
       </c>
       <c r="B2" t="str">
-        <v>Mirpur</v>
+        <v>Khalifapara</v>
       </c>
       <c r="C2" t="str">
-        <v>2nd Colony</v>
+        <v>রংপুর সদর</v>
       </c>
       <c r="D2" t="str">
-        <v/>
+        <v>821/2, R.K Road</v>
       </c>
       <c r="E2" t="str">
-        <v>Healthcare</v>
+        <v>Residential</v>
       </c>
       <c r="F2" t="str">
-        <v>23.792645918549734</v>
+        <v>25.754656436717397</v>
       </c>
       <c r="G2" t="str">
-        <v>90.34873048565407</v>
+        <v>89.22909239651324</v>
       </c>
       <c r="H2">
-        <v>1216</v>
+        <v>5400</v>
       </c>
       <c r="I2" t="str">
-        <v>NYLQ2921</v>
+        <v>LYPNW49851</v>
       </c>
       <c r="J2" t="str">
-        <v>0%</v>
+        <v>50%</v>
       </c>
     </row>
   </sheetData>
